--- a/public/storage/pruebas/files_up/conceptos5.xlsx
+++ b/public/storage/pruebas/files_up/conceptos5.xlsx
@@ -586,7 +586,7 @@
         <v>21</v>
       </c>
       <c r="H2">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="H3">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="H4">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="H5">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>21</v>
       </c>
       <c r="H6">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="H7">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>21</v>
       </c>
       <c r="H8">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="H9">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="H10">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>21</v>
       </c>
       <c r="H11">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="H12">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="H13">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>21</v>
       </c>
       <c r="H14">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="H15">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="H16">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>21</v>
       </c>
       <c r="H17">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="H18">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="H19">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="H20">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I20">
         <v>1</v>

--- a/public/storage/pruebas/files_up/conceptos5.xlsx
+++ b/public/storage/pruebas/files_up/conceptos5.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\CEKMOS_V1\storage\app\public\pruebas\files_up\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6253BBD5-1289-453E-A938-761A82E015B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>NUM</t>
   </si>
@@ -117,9 +122,6 @@
     <t>Mano De Obra Por Soldadura En Porta Papelera, Se Pintan Porta Papelera, Se Coloca (2) Pzs. Tornillo De 1/4, (2) Pzs. Tuerca De Seguridad 1/4 En Porta Papelera</t>
   </si>
   <si>
-    <t>1) PRECIOS SIN IVA SUJETOS A CAMBIO SIN PREVIO AVISO EN SISCO.                                                                                                                                                                                                                                                                                                                                                                                                      1-</t>
-  </si>
-  <si>
     <t>1306-1340008</t>
   </si>
   <si>
@@ -175,22 +177,14 @@
   </si>
   <si>
     <t>MANO DE OBRA POR SOLDADURA DE BISAGRAS DE PUERTA DE CAJA DE VALVULAS</t>
-  </si>
-  <si>
-    <t>1) PRECIOS SIN IVA SUJETOS A CAMBIO SIN PREVIO AVISO EN SISCO.                                                                                                                                                                                                                                                          1-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -217,13 +211,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -513,19 +515,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -604,7 +603,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -645,7 +644,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -683,7 +682,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -724,7 +723,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -762,7 +761,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -800,7 +799,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -838,7 +837,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -879,7 +878,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -917,12 +916,24 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -946,65 +957,65 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>10000</v>
       </c>
       <c r="E12">
+        <v>11355</v>
+      </c>
+      <c r="F12">
+        <v>21355</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>272</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>10000</v>
-      </c>
-      <c r="G12">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>272</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>18</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>10000</v>
-      </c>
-      <c r="E13">
-        <v>11355</v>
-      </c>
       <c r="F13">
-        <v>21355</v>
+        <v>2000</v>
       </c>
       <c r="G13">
         <v>21</v>
@@ -1028,65 +1039,65 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>12500</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>272</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
         <v>2000</v>
-      </c>
-      <c r="G14">
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <v>272</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>18</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>12500</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -1110,24 +1121,24 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>2000</v>
+        <v>1425</v>
       </c>
       <c r="G16">
         <v>21</v>
@@ -1151,24 +1162,24 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1400</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="G17">
         <v>21</v>
@@ -1192,24 +1203,24 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="G18">
         <v>21</v>
@@ -1233,79 +1244,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19">
-        <v>2500</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2500</v>
-      </c>
-      <c r="G19">
-        <v>21</v>
-      </c>
-      <c r="H19">
-        <v>272</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="K19">
-        <v>18</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20">
-        <v>21</v>
-      </c>
-      <c r="H20">
-        <v>272</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="K20">
-        <v>18</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20">
-        <v>2026</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>